--- a/src/test/resources/TestData/LoginData.xlsx
+++ b/src/test/resources/TestData/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pravin\autoScript\automationframework\src\test\resources\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pravin\autoScript\ByzWizFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF89F30-1720-40FF-842D-3443C012448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DC257-BDA8-4A56-B895-CC29D80F5CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DB8F229-F8D4-45F1-B07C-FA15F97A5A0D}"/>
   </bookViews>
@@ -34,18 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Pravin@123</t>
-  </si>
-  <si>
-    <t>pravin.rohokale@byzwiz.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kad nagar </t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Digit1</t>
+  </si>
+  <si>
+    <t>Digit2</t>
+  </si>
+  <si>
+    <t>Digit3</t>
+  </si>
+  <si>
+    <t>Digit4</t>
   </si>
 </sst>
 </file>
@@ -408,38 +417,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CDF495-51AB-4141-BC6A-B59FBD56F6CE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>8390289030</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="F2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{305C460F-7D69-49A0-9211-DEF6CDBAAE14}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{94A9837C-213C-4F1C-BD18-82591B633A1A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="pravin.rohokale@byzwiz.com" xr:uid="{305C460F-7D69-49A0-9211-DEF6CDBAAE14}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Pravin@123" xr:uid="{94A9837C-213C-4F1C-BD18-82591B633A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
